--- a/src/data/中国人民银行.xlsx
+++ b/src/data/中国人民银行.xlsx
@@ -4,74 +4,305 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="2023" sheetId="3" r:id="rId1"/>
+    <sheet name="2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="H54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-100（91）
-150（365）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
-  <si>
-    <t>舆情</t>
-  </si>
-  <si>
-    <t>节能</t>
-  </si>
-  <si>
-    <t>个股</t>
-  </si>
-  <si>
-    <t>中免港股ipo</t>
-  </si>
-  <si>
-    <t>钱江水利</t>
-  </si>
-  <si>
-    <t>外围</t>
-  </si>
-  <si>
-    <t>普跌</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="163">
+  <si>
+    <t>①央行7天逆回购1230.0亿；7天累计维护中（见图）
+②宏观：餐饮消费；休闲消费
+③板块：交通路网；电力；新能源
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购4710亿；7天累计9940亿
+②宏观：服务贸易
+③板块：5G；半导体；数控；机器人；铁路运输；
+④外围：欧股：震荡；亚美：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1550亿；7天累计11490亿
+②宏观：恢复/扩大消费；外贸
+③板块：物流；电影
+④外围：美：上涨；欧：震荡；亚：下跌；贵金属：上涨；油价：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购660亿；7天累计12150亿
+②宏观：股票发行注册制；以工代赈；
+③板块：跨境电商；芯片
+④外围：美：上涨；欧：震荡；亚：上涨；贵金属：上涨；油价：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购230亿；7天累计12380亿
+②宏观：股票发行注册制；算力；促销费
+③板块：电池；养老
+④外围：美：震荡；欧：上涨；亚：上涨；贵金属：下跌；油价：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1500亿；7天累计12700亿；
+②宏观：内需；企业办医疗
+③板块：基建；水利；旅游；通信
+④外围：美：下跌；欧：震荡；亚：上涨；贵金属：下跌；油价：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购3930亿；7天累计14310亿；单日净流入2650亿
+②宏观：品牌质检、基建安全
+③板块：卫星互联；新能源汽车
+④外围：美：下跌；欧：下跌；亚：下跌；贵金属：上涨；油价：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购6410亿；7天累计18990亿；单日净流入4680亿
+②宏观：海关；极端天气
+③板块：视频收费；抖音外卖
+④外围：美：上涨；欧：震荡；亚：下跌；贵金属：上涨；油价：震荡
+⑤个股：国轩高科（002074）与欧洲电池公司InoBat达成合作意向，双方将探索包括在欧洲合资建设40GWh产能在内的合作机会，推动动力电池和储能领域的变革。</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购4530亿；7天累计18810亿；单日净流出180亿
+②宏观：二手房成交继续下降
+③板块：机器人；新能源汽车
+④外围：美：下跌；欧：震荡；亚：上涨；贵金属：未知；油价：上涨；其他 - 土耳其股市熔断</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2030亿；7天累计19290亿；单日净流入480亿
+②宏观：防垄断-稳物价；
+③板块：文旅 - 氢能源
+④外围：美：下跌；欧：上涨；亚：下跌；贵金属：下跌；油价：下跌；</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购460亿；7天累计17360亿；单日净流出1040亿
+②宏观：人民币兑美元中间价较上日调降267点至6.8151；腾讯视频回应多设备登录被封号：同一账号同时最多可在2个设备上观影
+③板块：略
+④外围：略</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购910亿；7天累计14310亿；单日净流出3020亿
+②宏观：互联网治理、国企改革、三农
+③板块：算力、科技
+④外围：美：上涨；欧：上涨；亚：下跌；贵金属：上涨；</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2030亿；7天累计9960亿；单日净流出1900亿；一年逆回购4990亿
+②宏观：足协违纪
+③板块：MLCC，chatGPT，半导体
+④外围：美：震荡；欧：震荡；亚：上涨；贵金属：上涨；油：下降；</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购4870亿；7天累计14830亿；单日净流出1540亿；
+②宏观：足协违纪；会计造假；对美关税延期
+③板块：电池；芯片
+④外围：美：上涨；欧：上涨；亚：下跌；</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购3000亿；7天累计20420亿；单日净流入970亿；
+②宏观：中美关系；
+③板块：特斯拉；人工智能；机器人
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>在·</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购3000亿；7天累计18550亿；单日净流出1870亿；
+②宏观：市场监管；中美关系；
+③板块：华为；新能源；乡村振兴
+④外围：美：震荡；欧：震荡；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购4700亿；7天累计14900亿；单日净流出3650亿；
+②宏观：县级以下远程医疗；国企改革；跨境证券投资
+③板块：电池；煤炭；苹果概念
+④外围：美：上涨；欧：震荡；亚：震荡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①央行7天逆回购1070亿；7天累计16940亿；单日净</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3310亿；
+②宏观：两会；涉企违规收费；横琴合作
+③板块：中医药振兴
+④外围：美：下跌；欧：下跌；亚：上涨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①央行7天逆回购730亿；7天累计14670亿；单日净</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3970亿；
+②宏观：大宗消费；医保集采；新能源汽车免购置税
+③板块：口味电子烟监管
+④外围：震荡</t>
+    </r>
+  </si>
+  <si>
+    <t>①央行7天逆回购180亿；7天累计10150亿；单日净流出4520亿；
+②宏观：大宗消费；海南自贸区
+③板块：水利；医保；信息安全
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购70亿；7天累计6860亿；单日净流出-3290亿；
+②宏观：十四届全国人大一次会议；中美贸易
+③板块：芯片算力
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购30亿；7天累计2480亿；单日净流出4780亿；
+②宏观：二手房回暖；旅游回暖
+③板块：硅片；国企改革；5G
+④外围：美欧：震荡；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购40亿；7天累计1050亿；单日净流出1040亿；
+②宏观：科学技术部；
+③板块：数字经济；工业互联网；钠电池
+④外围：美欧：下跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购150亿；7天累计320亿；单日净流出30亿；
+②宏观：
+③板块：
+④外围：</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购410亿；7天累计660亿；单日净流入340亿；
+②宏观：耕地恢复
+③板块：冰雪运动；拒绝将社会办医疗机构纳入医保定点；新能源车补
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购290亿；7天累计920亿；单日净流入260亿；
+②宏观：银行体系
+③板块：双减；互联网+医疗
+④外围：美：震荡；欧：下跌；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1040亿；7天累计1920亿；单日净流入1000亿；一年逆回购4810亿
+②宏观：银行体系
+③板块：双减；互联网+医疗
+④外围：美：震荡；欧：下跌；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1090亿；7天累计2980亿；单日净流入940亿
+②宏观：粮食；提振消费
+③板块：5G
+④外围：美：震荡；欧：下跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购300亿；7天累计4520亿；单日净流出110亿
+②宏观：无
+③板块：ai；海南免税店
+④外围：美：下跌；欧：下跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1820.0亿,7天期限累计6050.0亿；单日逆回购流入1530亿
+②宏观：促销费
+③板块：军工；绿色建材下乡
+④外围：美：上涨；欧：上涨；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购670亿,7天期限累计5680.0亿；单日逆回购流出370亿
+②宏观：中俄会谈；
+③板块：海南免税；6G
+④外围：美：上涨；欧：上涨；亚：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购640亿,7天期限累计5230.0亿；单日逆回购流出450亿
+②宏观：消费信用；粮食安全
+③板块：无人驾驶；算力
+④外围：美：下跌；欧：上涨；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2550亿,7天期限累计5750.0亿；单日逆回购流出2230亿
+②宏观：三农；中美贸易；防垄断
+③板块：6G；光纤
+④外围：美：上涨；欧：下跌；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2780亿,7天期限累计6710亿；单日逆回购流入960亿
+②宏观：国企改革；降准落地；招商引资
+③板块：芯片；信托基金；半导体
+④外围：美：震荡；欧：上涨；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2000亿,7天期限累计8040亿；单日逆回购流入1330亿
+②宏观：制造业；tiktok；半导体
+③板块：AI
+④外围：美：下跌；欧：上涨；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2390亿,7天期限累计9790亿；单日逆回购流入1750亿
+②宏观：节能减排
+③板块：AI；算力；晶体管
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2390亿,7天期限累计11610亿；单日逆回购流入1820亿
+②宏观：房地产上市（债务问题）；带押过户
+③板块：外贸中间货币调整；6G；网络安全
+④外围：普涨</t>
   </si>
   <si>
     <t>①央行7天逆回购100亿，开始收缩
@@ -2796,43 +3027,34 @@
 ④外围：美股：涨；欧：下跌；亚：涨</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>逆回购</t>
-  </si>
-  <si>
-    <t>14天逆回购</t>
-  </si>
-  <si>
-    <t>一年逆回购</t>
-  </si>
-  <si>
-    <t>进入_MLF</t>
-  </si>
-  <si>
-    <t>移出_MLF</t>
-  </si>
-  <si>
-    <t>北向资金</t>
-  </si>
-  <si>
-    <t>南向资金</t>
-  </si>
-  <si>
-    <t>结余127</t>
-  </si>
-  <si>
-    <t>20:7；100:14</t>
-  </si>
-  <si>
-    <t>宏观</t>
-  </si>
-  <si>
-    <t>房地产调控</t>
-  </si>
-  <si>
-    <t>货币稳定</t>
+    <t>①央行7天逆回购650亿,7天期限累计1360亿；单日逆回购流入630.0亿14天逆回购520亿
+②宏观：英日领土驻军；育儿补贴
+③板块：储能；显示屏；华为
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购550亿,7天期限累计1890亿；单日逆回购流入550.0亿；14天逆回购770亿
+②宏观：国外入境限制
+③板块：电网；5G
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购820.0亿,7天期限累计2690.0亿；单日逆回购流入800.0亿；14天逆回购740亿；一年7790亿；
+②宏观：促销费；稳经济
+③板块：餐饮；新能源汽车；航空航天；文娱
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2050.0亿,7天期限累计4720.0亿；单日逆回购流入2030.0亿；14天逆回购3010亿
+②宏观：医疗卫生领域债券
+③板块：港澳台营业性演出；文旅；滴滴
+④外围：普涨；油价下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1330.0亿,7天期限累计5400.0亿；单日逆回购流入680.0亿；14天逆回购4470亿
+②宏观：青年人住房困难问题
+③板块：游戏；新能源；二手车；工程器械
+④外围：震荡</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +3067,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3032,15 +3254,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3493,18 +3713,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3872,59 +4086,327 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.375"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="161.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="54" spans="1:2">
       <c r="A1" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-      <c r="C1">
+        <v>44956</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:2">
+      <c r="A3" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:2">
+      <c r="A5" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:2">
+      <c r="A7" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:2">
+      <c r="A9" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:2">
+      <c r="A11" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:2">
+      <c r="A13" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:2">
+      <c r="A15" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="5:6">
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="6:6">
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="5:6">
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
+    </row>
+    <row r="17" ht="54" spans="1:2">
+      <c r="A17" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:2">
+      <c r="A19" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="54" spans="1:2">
+      <c r="A21" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="54" spans="1:2">
+      <c r="A23" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="54" spans="1:2">
+      <c r="A25" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="54" spans="1:2">
+      <c r="A27" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:3">
+      <c r="A29" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="1:2">
+      <c r="A31" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="54" spans="1:2">
+      <c r="A33" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:2">
+      <c r="A35" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="54" spans="1:2">
+      <c r="A37" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" ht="54" spans="1:2">
+      <c r="A39" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" ht="54" spans="1:2">
+      <c r="A41" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="54" spans="1:2">
+      <c r="A43" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="54" spans="1:2">
+      <c r="A45" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="1:2">
+      <c r="A47" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" ht="54" spans="1:2">
+      <c r="A50" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" ht="54" spans="1:2">
+      <c r="A52" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" ht="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" ht="54" spans="1:2">
+      <c r="A56" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" ht="54" spans="1:2">
+      <c r="A58" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" ht="54" spans="1:2">
+      <c r="A60" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" ht="54" spans="1:2">
+      <c r="A62" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" ht="54" spans="1:2">
+      <c r="A64" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" ht="54" spans="1:2">
+      <c r="A66" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" ht="54" spans="1:2">
+      <c r="A68" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" ht="54" spans="1:2">
+      <c r="A71" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" ht="54" spans="1:2">
+      <c r="A73" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" ht="54" spans="1:2">
+      <c r="A75" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" ht="54" spans="1:2">
+      <c r="A77" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3932,10 +4414,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B249" sqref="B248:B249"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3948,580 +4430,580 @@
       <c r="A1" s="1">
         <v>44743</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:2">
       <c r="A3" s="1">
         <v>44746</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:2">
       <c r="A5" s="1">
         <v>44747</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:2">
       <c r="A7" s="1">
         <v>44748</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
       <c r="A9" s="1">
         <v>44749</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:2">
       <c r="A11" s="1">
         <v>44750</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:2">
       <c r="A13" s="1">
         <v>44753</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:2">
       <c r="A15" s="1">
         <v>44754</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:2">
       <c r="A17" s="1">
         <v>44755</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:2">
       <c r="A19" s="1">
         <v>44756</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:2">
       <c r="A21" s="1">
         <v>44757</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:2">
       <c r="A23" s="1">
         <v>44760</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:2">
       <c r="A25" s="1">
         <v>44760</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:2">
       <c r="A27" s="1">
         <v>44761</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>20</v>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:2">
       <c r="A29" s="1">
         <v>44763</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>21</v>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:2">
       <c r="A31" s="1">
         <v>44764</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
+      <c r="B31" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>44767</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>23</v>
+      <c r="B33" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>44768</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>24</v>
+      <c r="B38" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>44769</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>25</v>
+      <c r="B43" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="1">
         <v>44770</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>26</v>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" ht="67.5" spans="1:2">
       <c r="A50" s="1">
         <v>44771</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>27</v>
+      <c r="B50" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="52" ht="81" spans="1:2">
       <c r="A52" s="1">
         <v>44774</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>28</v>
+      <c r="B52" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="67.5" spans="1:2">
       <c r="A54" s="1">
         <v>44775</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>29</v>
+      <c r="B54" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:2">
       <c r="A56" s="1">
         <v>44776</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>30</v>
+      <c r="B56" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" ht="67.5" spans="1:2">
       <c r="A58" s="1">
         <v>44777</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>31</v>
+      <c r="B58" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="60" ht="67.5" spans="1:2">
       <c r="A60" s="1">
         <v>44778</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>32</v>
+      <c r="B60" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="62" ht="54" spans="1:2">
       <c r="A62" s="1">
         <v>44781</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>33</v>
+      <c r="B62" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:2">
       <c r="A64" s="1">
         <v>44782</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>34</v>
+      <c r="B64" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="66" ht="54" spans="1:2">
       <c r="A66" s="1">
         <v>44783</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>35</v>
+      <c r="B66" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="1:2">
       <c r="A68" s="1">
         <v>44784</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>36</v>
+      <c r="B68" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="70" ht="54" spans="1:2">
       <c r="A70" s="1">
         <v>44785</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>37</v>
+      <c r="B70" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="54" spans="1:2">
       <c r="A72" s="1">
         <v>44788</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>38</v>
+      <c r="B72" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="54" spans="1:2">
       <c r="A74" s="1">
         <v>44789</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>39</v>
+      <c r="B74" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="54" spans="1:2">
       <c r="A76" s="1">
         <v>44790</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>40</v>
+      <c r="B76" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:2">
       <c r="A78" s="1">
         <v>44791</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>41</v>
+      <c r="B78" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="80" ht="54" spans="1:2">
       <c r="A80" s="1">
         <v>44792</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>42</v>
+      <c r="B80" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:2">
       <c r="A82" s="1">
         <v>44795</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>42</v>
+      <c r="B82" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:2">
       <c r="A84" s="1">
         <v>44796</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>42</v>
+      <c r="B84" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:2">
       <c r="A86" s="1">
         <v>44797</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>43</v>
+      <c r="B86" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="88" ht="54" spans="1:2">
       <c r="A88" s="1">
         <v>44798</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>44</v>
+      <c r="B88" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="90" ht="54" spans="1:2">
       <c r="A90" s="1">
         <v>44802</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>45</v>
+      <c r="B90" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="92" ht="54" spans="1:2">
       <c r="A92" s="1">
         <v>44803</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>46</v>
+      <c r="B92" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="94" ht="54" spans="1:2">
       <c r="A94" s="1">
         <v>44804</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>47</v>
+      <c r="B94" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:2">
       <c r="A96" s="1">
         <v>44805</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>48</v>
+      <c r="B96" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="98" ht="67.5" spans="1:2">
       <c r="A98" s="1">
         <v>44806</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>49</v>
+      <c r="B98" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:2">
       <c r="A100" s="1">
         <v>44809</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>50</v>
+      <c r="B100" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="102" ht="54" spans="1:2">
       <c r="A102" s="1">
         <v>44810</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>51</v>
+      <c r="B102" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="104" ht="54" spans="1:2">
       <c r="A104" s="1">
         <v>44811</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>52</v>
+      <c r="B104" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="106" ht="54" spans="1:2">
       <c r="A106" s="1">
         <v>44812</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>53</v>
+      <c r="B106" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="108" ht="54" spans="1:2">
       <c r="A108" s="1">
         <v>44813</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>54</v>
+      <c r="B108" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="110" ht="54" spans="1:2">
       <c r="A110" s="1">
         <v>44817</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>55</v>
+      <c r="B110" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="112" ht="67.5" spans="1:2">
       <c r="A112" s="1">
         <v>44818</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>56</v>
+      <c r="B112" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="114" ht="67.5" spans="1:2">
       <c r="A114" s="1">
         <v>44819</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>57</v>
+      <c r="B114" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="116" ht="67.5" spans="1:2">
       <c r="A116" s="1">
         <v>44820</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>58</v>
+      <c r="B116" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="118" ht="67.5" spans="1:2">
       <c r="A118" s="1">
         <v>44823</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>59</v>
+      <c r="B118" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="120" ht="81" spans="1:2">
       <c r="A120" s="1">
         <v>44825</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>60</v>
+      <c r="B120" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="122" ht="54" spans="1:2">
       <c r="A122" s="1">
         <v>44826</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>61</v>
+      <c r="B122" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:2">
       <c r="A124" s="1">
         <v>44827</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>62</v>
+      <c r="B124" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="126" ht="54" spans="1:2">
       <c r="A126" s="1">
         <v>44830</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>63</v>
+      <c r="B126" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="128" ht="54" spans="1:2">
       <c r="A128" s="1">
         <v>44831</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>64</v>
+      <c r="B128" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="130" ht="54" spans="1:2">
       <c r="A130" s="1">
         <v>44832</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>65</v>
+      <c r="B130" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="132" ht="54" spans="1:2">
       <c r="A132" s="1">
         <v>44833</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>66</v>
+      <c r="B132" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="134" ht="94.5" spans="1:2">
       <c r="A134" s="1">
         <v>44834</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>67</v>
+      <c r="B134" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="136" ht="94.5" spans="1:2">
       <c r="A136" s="1">
         <v>44844</v>
       </c>
-      <c r="B136" s="9" t="s">
-        <v>68</v>
+      <c r="B136" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="138" ht="130" customHeight="1" spans="1:2">
       <c r="A138" s="1">
         <v>44845</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>69</v>
+      <c r="B138" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="140" ht="94.5" spans="1:2">
       <c r="A140" s="1">
         <v>44846</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>70</v>
+      <c r="B140" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="142" ht="94.5" spans="1:2">
       <c r="A142" s="1">
         <v>44847</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>71</v>
+      <c r="B142" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="144" ht="94.5" spans="1:2">
       <c r="A144" s="1">
         <v>44848</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>72</v>
+      <c r="B144" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4529,431 +5011,471 @@
         <v>44851</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" ht="94.5" spans="1:2">
       <c r="A148" s="1">
         <v>44852</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>74</v>
+      <c r="B148" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="150" ht="94.5" spans="1:2">
       <c r="A150" s="1">
         <v>44853</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>75</v>
+      <c r="B150" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="152" ht="94.5" spans="1:2">
       <c r="A152" s="1">
         <v>44854</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>76</v>
+      <c r="B152" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="154" ht="94.5" spans="1:2">
       <c r="A154" s="1">
         <v>44855</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>77</v>
+      <c r="B154" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="156" ht="94.5" spans="1:2">
       <c r="A156" s="1">
         <v>44858</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>78</v>
+      <c r="B156" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="158" ht="94.5" spans="1:2">
       <c r="A158" s="1">
         <v>44859</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>79</v>
+      <c r="B158" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="160" ht="81" spans="1:2">
       <c r="A160" s="1">
         <v>44860</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>80</v>
+      <c r="B160" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="162" ht="94.5" spans="1:2">
       <c r="A162" s="1">
         <v>44861</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>81</v>
+      <c r="B162" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="164" ht="94.5" spans="1:2">
       <c r="A164" s="1">
         <v>44862</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>82</v>
+      <c r="B164" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="166" ht="108" spans="1:2">
       <c r="A166" s="1">
         <v>44865</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>83</v>
+      <c r="B166" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="168" ht="81" spans="1:2">
       <c r="A168" s="1">
         <v>44866</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>84</v>
+      <c r="B168" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="170" ht="94.5" spans="1:2">
       <c r="A170" s="1">
         <v>44867</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>85</v>
+      <c r="B170" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="172" ht="108" spans="1:2">
       <c r="A172" s="1">
         <v>44868</v>
       </c>
-      <c r="B172" s="9" t="s">
-        <v>86</v>
+      <c r="B172" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="174" ht="81" spans="1:2">
       <c r="A174" s="1">
         <v>44869</v>
       </c>
-      <c r="B174" s="9" t="s">
-        <v>87</v>
+      <c r="B174" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="176" ht="81" spans="1:2">
       <c r="A176" s="1">
         <v>44872</v>
       </c>
-      <c r="B176" s="9" t="s">
-        <v>88</v>
+      <c r="B176" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="178" ht="54" spans="1:2">
       <c r="A178" s="1">
         <v>44873</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>89</v>
+      <c r="B178" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="180" ht="54" spans="1:2">
       <c r="A180" s="1">
         <v>44874</v>
       </c>
-      <c r="B180" s="9" t="s">
-        <v>90</v>
+      <c r="B180" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="182" ht="54" spans="1:2">
       <c r="A182" s="1">
         <v>44875</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>91</v>
+      <c r="B182" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="184" ht="54" spans="1:2">
       <c r="A184" s="1">
         <v>44875</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>92</v>
+      <c r="B184" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="186" ht="94.5" spans="1:2">
       <c r="A186" s="1">
         <v>44879</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>93</v>
+      <c r="B186" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="188" ht="94.5" spans="1:2">
       <c r="A188" s="1">
         <v>44880</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>94</v>
+      <c r="B188" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="190" ht="67.5" spans="1:2">
       <c r="A190" s="1">
         <v>44881</v>
       </c>
-      <c r="B190" s="8" t="s">
-        <v>95</v>
+      <c r="B190" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="192" ht="94.5" spans="1:2">
       <c r="A192" s="1">
         <v>44882</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>96</v>
+      <c r="B192" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="194" ht="94.5" spans="1:2">
       <c r="A194" s="1">
         <v>44883</v>
       </c>
-      <c r="B194" s="8" t="s">
-        <v>97</v>
+      <c r="B194" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="196" ht="67.5" spans="1:2">
       <c r="A196" s="1">
         <v>44886</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>98</v>
+      <c r="B196" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="198" ht="67.5" spans="1:2">
       <c r="A198" s="1">
         <v>44887</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>99</v>
+      <c r="B198" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="200" ht="54" spans="1:2">
       <c r="A200" s="1">
         <v>44888</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>100</v>
+      <c r="B200" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>44889</v>
       </c>
-      <c r="B202" s="8" t="s">
-        <v>101</v>
+      <c r="B202" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="204" ht="67.5" spans="1:2">
       <c r="A204" s="1">
         <v>44890</v>
       </c>
-      <c r="B204" s="8" t="s">
-        <v>102</v>
+      <c r="B204" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="206" ht="67.5" spans="1:2">
       <c r="A206" s="1">
         <v>44893</v>
       </c>
-      <c r="B206" s="8" t="s">
-        <v>103</v>
+      <c r="B206" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="209" ht="67.5" spans="1:2">
       <c r="A209" s="1">
         <v>44894</v>
       </c>
-      <c r="B209" s="8" t="s">
-        <v>104</v>
+      <c r="B209" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="211" ht="67.5" spans="1:2">
       <c r="A211" s="1">
         <v>44895</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>105</v>
+      <c r="B211" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="213" ht="54" spans="1:2">
       <c r="A213" s="1">
         <v>44896</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>106</v>
+      <c r="B213" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="215" ht="54" spans="1:2">
       <c r="A215" s="1">
         <v>44897</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>107</v>
+      <c r="B215" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="217" ht="67.5" spans="1:2">
       <c r="A217" s="1">
         <v>44900</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>108</v>
+      <c r="B217" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="219" ht="67.5" spans="1:2">
       <c r="A219" s="1">
         <v>44901</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>109</v>
+      <c r="B219" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="221" ht="67.5" spans="1:2">
       <c r="A221" s="1">
         <v>44902</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>110</v>
+      <c r="B221" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="223" ht="54" spans="1:2">
       <c r="A223" s="1">
         <v>44903</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>111</v>
+      <c r="B223" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="225" ht="54" spans="1:2">
       <c r="A225" s="1">
         <v>44904</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>112</v>
+      <c r="B225" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="227" ht="54" spans="1:2">
       <c r="A227" s="1">
         <v>44907</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>113</v>
+      <c r="B227" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="229" ht="54" spans="1:2">
       <c r="A229" s="1">
         <v>44908</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>114</v>
+      <c r="B229" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="231" ht="54" spans="1:2">
       <c r="A231" s="1">
         <v>44909</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>115</v>
+      <c r="B231" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="233" ht="54" spans="1:2">
       <c r="A233" s="1">
         <v>44910</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>116</v>
+      <c r="B233" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="235" ht="54" spans="1:2">
       <c r="A235" s="1">
         <v>44911</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>117</v>
+      <c r="B235" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="237" ht="54" spans="1:2">
       <c r="A237" s="1">
         <v>44914</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>118</v>
+      <c r="B237" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
         <v>44924</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>119</v>
+      <c r="B239" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="241" ht="54" spans="1:2">
       <c r="A241" s="1">
         <v>44925</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>120</v>
+      <c r="B241" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="243" ht="54" spans="1:2">
       <c r="A243" s="1">
         <v>44929</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>121</v>
+      <c r="B243" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="245" ht="54" spans="1:2">
       <c r="A245" s="1">
         <v>44931</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>122</v>
+      <c r="B245" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="247" ht="54" spans="1:2">
       <c r="A247" s="1">
         <v>44932</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>123</v>
+      <c r="B247" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="249" ht="54" spans="1:2">
       <c r="A249" s="1">
         <v>44935</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>124</v>
+      <c r="B249" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="251" ht="54" spans="1:2">
       <c r="A251" s="1">
         <v>44936</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>125</v>
+      <c r="B251" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="253" ht="54" spans="1:2">
       <c r="A253" s="1">
         <v>44937</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>126</v>
+      <c r="B253" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="255" ht="54" spans="1:2">
+      <c r="A255" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="257" ht="54" spans="1:2">
+      <c r="A257" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="259" ht="54" spans="1:2">
+      <c r="A259" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="261" ht="54" spans="1:2">
+      <c r="A261" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="263" ht="54" spans="1:2">
+      <c r="A263" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4969,1697 +5491,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
-  <cols>
-    <col min="2" max="5" width="13.375"/>
-    <col min="6" max="8" width="14.5"/>
-    <col min="11" max="12" width="13.375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I147"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M127" sqref="M127"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15.625"/>
-    <col min="2" max="4" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>44744</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>44745</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>44746</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>44747</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>44748</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>44749</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>44750</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>44752</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>44753</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>44754</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>44755</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>44756</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>44757</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>44758</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>44759</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>44761</v>
-      </c>
-      <c r="B20">
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>44762</v>
-      </c>
-      <c r="B21">
-        <v>70</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>44763</v>
-      </c>
-      <c r="B22">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>44764</v>
-      </c>
-      <c r="B23">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>44765</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>44766</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>44767</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>44769</v>
-      </c>
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>44770</v>
-      </c>
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>44771</v>
-      </c>
-      <c r="B30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>44772</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>44773</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>44774</v>
-      </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>44775</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>44776</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>44777</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
-        <v>44778</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
-        <v>44779</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>44780</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>44781</v>
-      </c>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>44783</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>44785</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
-        <v>44786</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>44787</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B47">
-        <v>20</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>44789</v>
-      </c>
-      <c r="B48">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B49">
-        <v>20</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2">
-        <v>44791</v>
-      </c>
-      <c r="B50">
-        <v>20</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2">
-        <v>44792</v>
-      </c>
-      <c r="B51">
-        <v>20</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2">
-        <v>44793</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>44794</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2">
-        <v>44795</v>
-      </c>
-      <c r="B54">
-        <v>20</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2">
-        <v>44796</v>
-      </c>
-      <c r="B55">
-        <v>20</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="2">
-        <v>44797</v>
-      </c>
-      <c r="B56">
-        <v>20</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>-92.28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="2">
-        <v>44798</v>
-      </c>
-      <c r="B57">
-        <v>20</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>-66.15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="2">
-        <v>44799</v>
-      </c>
-      <c r="B58">
-        <v>20</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>16.71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2">
-        <v>44800</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2">
-        <v>44802</v>
-      </c>
-      <c r="B61">
-        <v>20</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="2">
-        <v>44803</v>
-      </c>
-      <c r="B62">
-        <v>20</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>21.45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="2">
-        <v>44804</v>
-      </c>
-      <c r="B63">
-        <v>20</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>-49.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="2">
-        <v>44805</v>
-      </c>
-      <c r="B64">
-        <v>20</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="2">
-        <v>44806</v>
-      </c>
-      <c r="B65">
-        <v>20</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>-8.42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2">
-        <v>44807</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2">
-        <v>44809</v>
-      </c>
-      <c r="B68">
-        <v>20</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>44810</v>
-      </c>
-      <c r="B69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2">
-        <v>44811</v>
-      </c>
-      <c r="B70">
-        <v>20</v>
-      </c>
-      <c r="F70">
-        <v>-38.99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>44812</v>
-      </c>
-      <c r="B71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>44813</v>
-      </c>
-      <c r="B72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>44814</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>44816</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>44817</v>
-      </c>
-      <c r="B76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>44818</v>
-      </c>
-      <c r="B77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2">
-        <v>44819</v>
-      </c>
-      <c r="B78">
-        <v>20</v>
-      </c>
-      <c r="E78">
-        <v>4000</v>
-      </c>
-      <c r="F78">
-        <v>-6000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="2">
-        <v>44820</v>
-      </c>
-      <c r="B79">
-        <v>20</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>-41.33</v>
-      </c>
-      <c r="H79">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2">
-        <v>44822</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B82" s="3">
-        <v>20</v>
-      </c>
-      <c r="C82" s="3">
-        <v>100</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>-45.12</v>
-      </c>
-      <c r="H82">
-        <v>14.02</v>
-      </c>
-      <c r="I82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B83">
-        <v>20</v>
-      </c>
-      <c r="C83">
-        <v>240</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>44825</v>
-      </c>
-      <c r="B84">
-        <v>20</v>
-      </c>
-      <c r="C84">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1">
-        <v>44826</v>
-      </c>
-      <c r="B85">
-        <v>20</v>
-      </c>
-      <c r="C85">
-        <v>160</v>
-      </c>
-      <c r="G85">
-        <v>-30.6</v>
-      </c>
-      <c r="H85">
-        <v>44.25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>44827</v>
-      </c>
-      <c r="B86">
-        <v>20</v>
-      </c>
-      <c r="C86">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>44828</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>44829</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>44830</v>
-      </c>
-      <c r="B89">
-        <v>420</v>
-      </c>
-      <c r="C89">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>44831</v>
-      </c>
-      <c r="B90">
-        <v>1130</v>
-      </c>
-      <c r="C90">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>44832</v>
-      </c>
-      <c r="B91">
-        <v>1330</v>
-      </c>
-      <c r="C91">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>44833</v>
-      </c>
-      <c r="B92">
-        <v>1050</v>
-      </c>
-      <c r="C92">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B93">
-        <v>1280</v>
-      </c>
-      <c r="C93">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>44836</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>44837</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>44838</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>44839</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>44840</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>44841</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>44842</v>
-      </c>
-      <c r="B101">
-        <v>170</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>44843</v>
-      </c>
-      <c r="B102">
-        <v>20</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>44844</v>
-      </c>
-      <c r="B103">
-        <v>20</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>44845</v>
-      </c>
-      <c r="B104">
-        <v>20</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>44846</v>
-      </c>
-      <c r="B105">
-        <v>20</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>44847</v>
-      </c>
-      <c r="B106">
-        <v>20</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>44848</v>
-      </c>
-      <c r="B107">
-        <v>20</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>44849</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>44850</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>44851</v>
-      </c>
-      <c r="B110">
-        <v>20</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>44852</v>
-      </c>
-      <c r="B111">
-        <v>20</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>44853</v>
-      </c>
-      <c r="B112">
-        <v>20</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>44854</v>
-      </c>
-      <c r="B113">
-        <v>20</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>44855</v>
-      </c>
-      <c r="B114">
-        <v>20</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>44856</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>44857</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1">
-        <v>44858</v>
-      </c>
-      <c r="B117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1">
-        <v>44859</v>
-      </c>
-      <c r="B118">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1">
-        <v>44860</v>
-      </c>
-      <c r="B119">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1">
-        <v>44861</v>
-      </c>
-      <c r="B120">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1">
-        <v>44862</v>
-      </c>
-      <c r="B121">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1">
-        <v>44863</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1">
-        <v>44864</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B124">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1">
-        <v>44866</v>
-      </c>
-      <c r="B125">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B126">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1">
-        <v>44868</v>
-      </c>
-      <c r="B127">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1">
-        <v>44869</v>
-      </c>
-      <c r="B128">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1">
-        <v>44870</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1">
-        <v>44871</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1">
-        <v>44872</v>
-      </c>
-      <c r="B131">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1">
-        <v>44873</v>
-      </c>
-      <c r="B132">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1">
-        <v>44874</v>
-      </c>
-      <c r="B133">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1">
-        <v>44875</v>
-      </c>
-      <c r="B134">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1">
-        <v>44876</v>
-      </c>
-      <c r="B135">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1">
-        <v>44877</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1">
-        <v>44878</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1">
-        <v>44879</v>
-      </c>
-      <c r="B138">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>44880</v>
-      </c>
-      <c r="B139">
-        <v>1720</v>
-      </c>
-      <c r="D139">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1">
-        <v>44881</v>
-      </c>
-      <c r="B140">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1">
-        <v>44882</v>
-      </c>
-      <c r="B141">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1">
-        <v>44883</v>
-      </c>
-      <c r="B142">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1">
-        <v>44884</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1">
-        <v>44885</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1">
-        <v>44886</v>
-      </c>
-      <c r="B145">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1">
-        <v>44887</v>
-      </c>
-      <c r="B146">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>44888</v>
-      </c>
-      <c r="B147">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/src/data/中国人民银行.xlsx
+++ b/src/data/中国人民银行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="9000" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="169">
   <si>
     <t>①央行7天逆回购1230.0亿；7天累计维护中（见图）
 ②宏观：餐饮消费；休闲消费
@@ -303,6 +303,42 @@
 ②宏观：房地产上市（债务问题）；带押过户
 ③板块：外贸中间货币调整；6G；网络安全
 ④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20亿,7天期限累计9080亿；单日逆回购流出2530亿
+②宏观：地铁不带口罩；中国银行行长被抓；体育总局领导被抓
+③板块：AI;芯片
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20亿,7天期限累计6320亿；单日逆回购流出2760亿
+②宏观：马克龙、冯德莱恩访华；芯片；博鳌论坛
+③板块：AI;自动驾驶
+④外围：普震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购170亿,7天期限累计290亿；单日逆回购流出1720亿
+②宏观：欧洲领导人访华；数字人民币；
+③板块：AI；手机设备
+④外围：亚太：下跌；美欧：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购180亿,7天期限累计450亿；单日逆回购流入160亿
+②宏观：第五次经济普查；股票业务最低倍付缴纳比例降低
+③板块：数字人民币；半导体；甲流；算力
+④外围：暂无</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购50亿,7天期限累计480亿；单日逆回购流入30亿
+②宏观：应届生就业；chatgpt安全使用；旅团不规范
+③板块：5G；特斯拉；光伏
+④外围：复活节暂无</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购70亿,7天期限累计550亿；单日逆回购流入70亿
+②宏观：横琴粤澳深度合作区；中美外交；恢复经济
+③板块：西氢东送
+④外围：美：震荡；欧亚：上涨</t>
   </si>
   <si>
     <t>①央行7天逆回购100亿，开始收缩
@@ -4086,10 +4122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4403,6 +4439,54 @@
       </c>
       <c r="B77" s="2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="79" ht="54" spans="1:2">
+      <c r="A79" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" ht="54" spans="1:2">
+      <c r="A81" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" ht="54" spans="1:2">
+      <c r="A83" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" ht="54" spans="1:2">
+      <c r="A85" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" ht="54" spans="1:2">
+      <c r="A87" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" ht="54" spans="1:2">
+      <c r="A89" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4431,7 +4515,7 @@
         <v>44743</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:2">
@@ -4439,7 +4523,7 @@
         <v>44746</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:2">
@@ -4447,7 +4531,7 @@
         <v>44747</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:2">
@@ -4455,7 +4539,7 @@
         <v>44748</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
@@ -4463,7 +4547,7 @@
         <v>44749</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:2">
@@ -4471,7 +4555,7 @@
         <v>44750</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:2">
@@ -4479,7 +4563,7 @@
         <v>44753</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:2">
@@ -4487,7 +4571,7 @@
         <v>44754</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:2">
@@ -4495,7 +4579,7 @@
         <v>44755</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:2">
@@ -4503,7 +4587,7 @@
         <v>44756</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:2">
@@ -4511,7 +4595,7 @@
         <v>44757</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:2">
@@ -4519,7 +4603,7 @@
         <v>44760</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:2">
@@ -4527,7 +4611,7 @@
         <v>44760</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:2">
@@ -4535,7 +4619,7 @@
         <v>44761</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:2">
@@ -4543,7 +4627,7 @@
         <v>44763</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:2">
@@ -4551,7 +4635,7 @@
         <v>44764</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4559,7 +4643,7 @@
         <v>44767</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4579,7 +4663,7 @@
         <v>44768</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4599,7 +4683,7 @@
         <v>44769</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4619,7 +4703,7 @@
         <v>44770</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" ht="67.5" spans="1:2">
@@ -4627,7 +4711,7 @@
         <v>44771</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" ht="81" spans="1:2">
@@ -4635,7 +4719,7 @@
         <v>44774</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="67.5" spans="1:2">
@@ -4643,7 +4727,7 @@
         <v>44775</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:2">
@@ -4651,7 +4735,7 @@
         <v>44776</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" ht="67.5" spans="1:2">
@@ -4659,7 +4743,7 @@
         <v>44777</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" ht="67.5" spans="1:2">
@@ -4667,7 +4751,7 @@
         <v>44778</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="54" spans="1:2">
@@ -4675,7 +4759,7 @@
         <v>44781</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:2">
@@ -4683,7 +4767,7 @@
         <v>44782</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" ht="54" spans="1:2">
@@ -4691,7 +4775,7 @@
         <v>44783</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="1:2">
@@ -4699,7 +4783,7 @@
         <v>44784</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" ht="54" spans="1:2">
@@ -4707,7 +4791,7 @@
         <v>44785</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" ht="54" spans="1:2">
@@ -4715,7 +4799,7 @@
         <v>44788</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" ht="54" spans="1:2">
@@ -4723,7 +4807,7 @@
         <v>44789</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="54" spans="1:2">
@@ -4731,7 +4815,7 @@
         <v>44790</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:2">
@@ -4739,7 +4823,7 @@
         <v>44791</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" ht="54" spans="1:2">
@@ -4747,7 +4831,7 @@
         <v>44792</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:2">
@@ -4755,7 +4839,7 @@
         <v>44795</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:2">
@@ -4763,7 +4847,7 @@
         <v>44796</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:2">
@@ -4771,7 +4855,7 @@
         <v>44797</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" ht="54" spans="1:2">
@@ -4779,7 +4863,7 @@
         <v>44798</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" ht="54" spans="1:2">
@@ -4787,7 +4871,7 @@
         <v>44802</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" ht="54" spans="1:2">
@@ -4795,7 +4879,7 @@
         <v>44803</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" ht="54" spans="1:2">
@@ -4803,7 +4887,7 @@
         <v>44804</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:2">
@@ -4811,7 +4895,7 @@
         <v>44805</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" ht="67.5" spans="1:2">
@@ -4819,7 +4903,7 @@
         <v>44806</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:2">
@@ -4827,7 +4911,7 @@
         <v>44809</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" ht="54" spans="1:2">
@@ -4835,7 +4919,7 @@
         <v>44810</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" ht="54" spans="1:2">
@@ -4843,7 +4927,7 @@
         <v>44811</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" ht="54" spans="1:2">
@@ -4851,7 +4935,7 @@
         <v>44812</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" ht="54" spans="1:2">
@@ -4859,7 +4943,7 @@
         <v>44813</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" ht="54" spans="1:2">
@@ -4867,7 +4951,7 @@
         <v>44817</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" ht="67.5" spans="1:2">
@@ -4875,7 +4959,7 @@
         <v>44818</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" ht="67.5" spans="1:2">
@@ -4883,7 +4967,7 @@
         <v>44819</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" ht="67.5" spans="1:2">
@@ -4891,7 +4975,7 @@
         <v>44820</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" ht="67.5" spans="1:2">
@@ -4899,7 +4983,7 @@
         <v>44823</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" ht="81" spans="1:2">
@@ -4907,7 +4991,7 @@
         <v>44825</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" ht="54" spans="1:2">
@@ -4915,7 +4999,7 @@
         <v>44826</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:2">
@@ -4923,7 +5007,7 @@
         <v>44827</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" ht="54" spans="1:2">
@@ -4931,7 +5015,7 @@
         <v>44830</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" ht="54" spans="1:2">
@@ -4939,7 +5023,7 @@
         <v>44831</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" ht="54" spans="1:2">
@@ -4947,7 +5031,7 @@
         <v>44832</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" ht="54" spans="1:2">
@@ -4955,7 +5039,7 @@
         <v>44833</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" ht="94.5" spans="1:2">
@@ -4963,7 +5047,7 @@
         <v>44834</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" ht="94.5" spans="1:2">
@@ -4971,7 +5055,7 @@
         <v>44844</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" ht="130" customHeight="1" spans="1:2">
@@ -4979,7 +5063,7 @@
         <v>44845</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" ht="94.5" spans="1:2">
@@ -4987,7 +5071,7 @@
         <v>44846</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" ht="94.5" spans="1:2">
@@ -4995,7 +5079,7 @@
         <v>44847</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" ht="94.5" spans="1:2">
@@ -5003,7 +5087,7 @@
         <v>44848</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5011,7 +5095,7 @@
         <v>44851</v>
       </c>
       <c r="B146" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" ht="94.5" spans="1:2">
@@ -5019,7 +5103,7 @@
         <v>44852</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" ht="94.5" spans="1:2">
@@ -5027,7 +5111,7 @@
         <v>44853</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152" ht="94.5" spans="1:2">
@@ -5035,7 +5119,7 @@
         <v>44854</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" ht="94.5" spans="1:2">
@@ -5043,7 +5127,7 @@
         <v>44855</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" ht="94.5" spans="1:2">
@@ -5051,7 +5135,7 @@
         <v>44858</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="158" ht="94.5" spans="1:2">
@@ -5059,7 +5143,7 @@
         <v>44859</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" ht="81" spans="1:2">
@@ -5067,7 +5151,7 @@
         <v>44860</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" ht="94.5" spans="1:2">
@@ -5075,7 +5159,7 @@
         <v>44861</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" ht="94.5" spans="1:2">
@@ -5083,7 +5167,7 @@
         <v>44862</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" ht="108" spans="1:2">
@@ -5091,7 +5175,7 @@
         <v>44865</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" ht="81" spans="1:2">
@@ -5099,7 +5183,7 @@
         <v>44866</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170" ht="94.5" spans="1:2">
@@ -5107,7 +5191,7 @@
         <v>44867</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" ht="108" spans="1:2">
@@ -5115,7 +5199,7 @@
         <v>44868</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="174" ht="81" spans="1:2">
@@ -5123,7 +5207,7 @@
         <v>44869</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" ht="81" spans="1:2">
@@ -5131,7 +5215,7 @@
         <v>44872</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" ht="54" spans="1:2">
@@ -5139,7 +5223,7 @@
         <v>44873</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180" ht="54" spans="1:2">
@@ -5147,7 +5231,7 @@
         <v>44874</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" ht="54" spans="1:2">
@@ -5155,7 +5239,7 @@
         <v>44875</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184" ht="54" spans="1:2">
@@ -5163,7 +5247,7 @@
         <v>44875</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" ht="94.5" spans="1:2">
@@ -5171,7 +5255,7 @@
         <v>44879</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188" ht="94.5" spans="1:2">
@@ -5179,7 +5263,7 @@
         <v>44880</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190" ht="67.5" spans="1:2">
@@ -5187,7 +5271,7 @@
         <v>44881</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192" ht="94.5" spans="1:2">
@@ -5195,7 +5279,7 @@
         <v>44882</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" ht="94.5" spans="1:2">
@@ -5203,7 +5287,7 @@
         <v>44883</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" ht="67.5" spans="1:2">
@@ -5211,7 +5295,7 @@
         <v>44886</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" ht="67.5" spans="1:2">
@@ -5219,7 +5303,7 @@
         <v>44887</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" ht="54" spans="1:2">
@@ -5227,7 +5311,7 @@
         <v>44888</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5235,7 +5319,7 @@
         <v>44889</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" ht="67.5" spans="1:2">
@@ -5243,7 +5327,7 @@
         <v>44890</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" ht="67.5" spans="1:2">
@@ -5251,7 +5335,7 @@
         <v>44893</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="209" ht="67.5" spans="1:2">
@@ -5259,7 +5343,7 @@
         <v>44894</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" ht="67.5" spans="1:2">
@@ -5267,7 +5351,7 @@
         <v>44895</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" ht="54" spans="1:2">
@@ -5275,7 +5359,7 @@
         <v>44896</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="215" ht="54" spans="1:2">
@@ -5283,7 +5367,7 @@
         <v>44897</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" ht="67.5" spans="1:2">
@@ -5291,7 +5375,7 @@
         <v>44900</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="219" ht="67.5" spans="1:2">
@@ -5299,7 +5383,7 @@
         <v>44901</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="221" ht="67.5" spans="1:2">
@@ -5307,7 +5391,7 @@
         <v>44902</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="223" ht="54" spans="1:2">
@@ -5315,7 +5399,7 @@
         <v>44903</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" ht="54" spans="1:2">
@@ -5323,7 +5407,7 @@
         <v>44904</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="227" ht="54" spans="1:2">
@@ -5331,7 +5415,7 @@
         <v>44907</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="229" ht="54" spans="1:2">
@@ -5339,7 +5423,7 @@
         <v>44908</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="231" ht="54" spans="1:2">
@@ -5347,7 +5431,7 @@
         <v>44909</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="233" ht="54" spans="1:2">
@@ -5355,7 +5439,7 @@
         <v>44910</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="235" ht="54" spans="1:2">
@@ -5363,7 +5447,7 @@
         <v>44911</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="237" ht="54" spans="1:2">
@@ -5371,7 +5455,7 @@
         <v>44914</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5379,7 +5463,7 @@
         <v>44924</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="241" ht="54" spans="1:2">
@@ -5387,7 +5471,7 @@
         <v>44925</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="243" ht="54" spans="1:2">
@@ -5395,7 +5479,7 @@
         <v>44929</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="245" ht="54" spans="1:2">
@@ -5403,7 +5487,7 @@
         <v>44931</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="247" ht="54" spans="1:2">
@@ -5411,7 +5495,7 @@
         <v>44932</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="249" ht="54" spans="1:2">
@@ -5419,7 +5503,7 @@
         <v>44935</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="251" ht="54" spans="1:2">
@@ -5427,7 +5511,7 @@
         <v>44936</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="253" ht="54" spans="1:2">
@@ -5435,7 +5519,7 @@
         <v>44937</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255" ht="54" spans="1:2">
@@ -5443,7 +5527,7 @@
         <v>44938</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="257" ht="54" spans="1:2">
@@ -5451,7 +5535,7 @@
         <v>44939</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="259" ht="54" spans="1:2">
@@ -5459,7 +5543,7 @@
         <v>44942</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="261" ht="54" spans="1:2">
@@ -5467,7 +5551,7 @@
         <v>44943</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="263" ht="54" spans="1:2">
@@ -5475,7 +5559,7 @@
         <v>44946</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/中国人民银行.xlsx
+++ b/src/data/中国人民银行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9000" windowHeight="12825"/>
+    <workbookView windowWidth="23985" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
   <si>
     <t>①央行7天逆回购1230.0亿；7天累计维护中（见图）
 ②宏观：餐饮消费；休闲消费
@@ -339,6 +339,66 @@
 ②宏观：横琴粤澳深度合作区；中美外交；恢复经济
 ③板块：西氢东送
 ④外围：美：震荡；欧亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购90亿,7天期限累计560亿；单日逆回购流入10.0亿
+②宏观：成渝（西部科学城）；台湾贸易限制；债券私募监管收紧
+③板块：PCB；ChatGPT
+④外围：美：下跌；欧亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购150亿,7天期限累计540亿；单日逆回购流出20.0亿
+②宏观：广东深化改革；芯片制造
+③板块：ai+电商
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购200.0亿,7天期限累计560.0亿；单日逆回购流入20.0亿；1年逆回购1700亿。
+②宏观：商品密码
+③板块：显示驱动，OLED
+④外围：美股下跌；欧股下跌；亚太上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购380.0亿,7天期限累计890.0亿；单日逆回购流入330.0亿
+②宏观：芬太尼；人民银行支付清算；旅游；央企回归
+③板块：绿氢；锻造；chatgpt
+④外围：美股上涨；欧股震荡；亚太上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购320.0亿,7天期限累计1140.0亿；单日逆回购流入250.0亿
+②宏观：中美；不正当竞争；绿色贸易；人民币存款挂牌利率下降
+③板块：火山引擎；PCB；
+④外围：美股震荡；欧股上涨；亚太下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购340.0亿,7天期限累计1390.0亿；单日逆回购流入250.0亿
+②宏观：恢复扩大消费；三孩；
+③板块：chatgpt；冷液
+④外围：美股震荡；欧股震荡；亚太上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购880.0亿,7天期限累计2120.0亿；单日逆回购流入730.0亿
+②宏观：6G；光通信；量子通信
+③板块：芯片；算力；模拟IC
+④外围：美股下跌；欧股震荡；亚太下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1150亿,7天期限累计3960亿；单日逆回购流入950.0亿
+②宏观：国企改革；中美关系；扩大内需
+③板块：机床；cea，ceer（碳排放）
+④外围：美股震荡；欧股上涨；亚太下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购950亿,7天期限累计5910亿；单日逆回购流入630.0亿
+②宏观：不动产统一登记；刺激消费
+③板块：通信；高速飞车
+④外围：美股下跌；欧股震荡；亚太震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购930亿,7天期限累计6500亿；单日逆回购流入590.0亿
+②宏观：国企扩招
+③板块：旅游；氢能重卡；机器人
+④外围：美股震荡；欧股下跌；亚太下跌</t>
   </si>
   <si>
     <t>①央行7天逆回购100亿，开始收缩
@@ -4122,10 +4182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4487,6 +4547,86 @@
       </c>
       <c r="B89" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="91" ht="54" spans="1:2">
+      <c r="A91" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" ht="54" spans="1:2">
+      <c r="A93" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" ht="54" spans="1:2">
+      <c r="A95" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" ht="54" spans="1:2">
+      <c r="A97" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" ht="54" spans="1:2">
+      <c r="A99" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" ht="54" spans="1:2">
+      <c r="A101" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" ht="54" spans="1:2">
+      <c r="A103" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" ht="54" spans="1:2">
+      <c r="A105" s="1">
+        <v>45039</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" ht="54" spans="1:2">
+      <c r="A107" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" ht="54" spans="1:2">
+      <c r="A109" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +4655,7 @@
         <v>44743</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:2">
@@ -4523,7 +4663,7 @@
         <v>44746</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:2">
@@ -4531,7 +4671,7 @@
         <v>44747</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:2">
@@ -4539,7 +4679,7 @@
         <v>44748</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
@@ -4547,7 +4687,7 @@
         <v>44749</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:2">
@@ -4555,7 +4695,7 @@
         <v>44750</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:2">
@@ -4563,7 +4703,7 @@
         <v>44753</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:2">
@@ -4571,7 +4711,7 @@
         <v>44754</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:2">
@@ -4579,7 +4719,7 @@
         <v>44755</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:2">
@@ -4587,7 +4727,7 @@
         <v>44756</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:2">
@@ -4595,7 +4735,7 @@
         <v>44757</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:2">
@@ -4603,7 +4743,7 @@
         <v>44760</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:2">
@@ -4611,7 +4751,7 @@
         <v>44760</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:2">
@@ -4619,7 +4759,7 @@
         <v>44761</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:2">
@@ -4627,7 +4767,7 @@
         <v>44763</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:2">
@@ -4635,7 +4775,7 @@
         <v>44764</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4643,7 +4783,7 @@
         <v>44767</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4663,7 +4803,7 @@
         <v>44768</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4683,7 +4823,7 @@
         <v>44769</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4703,7 +4843,7 @@
         <v>44770</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" ht="67.5" spans="1:2">
@@ -4711,7 +4851,7 @@
         <v>44771</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" ht="81" spans="1:2">
@@ -4719,7 +4859,7 @@
         <v>44774</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="67.5" spans="1:2">
@@ -4727,7 +4867,7 @@
         <v>44775</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:2">
@@ -4735,7 +4875,7 @@
         <v>44776</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" ht="67.5" spans="1:2">
@@ -4743,7 +4883,7 @@
         <v>44777</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" ht="67.5" spans="1:2">
@@ -4751,7 +4891,7 @@
         <v>44778</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="54" spans="1:2">
@@ -4759,7 +4899,7 @@
         <v>44781</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:2">
@@ -4767,7 +4907,7 @@
         <v>44782</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" ht="54" spans="1:2">
@@ -4775,7 +4915,7 @@
         <v>44783</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="1:2">
@@ -4783,7 +4923,7 @@
         <v>44784</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" ht="54" spans="1:2">
@@ -4791,7 +4931,7 @@
         <v>44785</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" ht="54" spans="1:2">
@@ -4799,7 +4939,7 @@
         <v>44788</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" ht="54" spans="1:2">
@@ -4807,7 +4947,7 @@
         <v>44789</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" ht="54" spans="1:2">
@@ -4815,7 +4955,7 @@
         <v>44790</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:2">
@@ -4823,7 +4963,7 @@
         <v>44791</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" ht="54" spans="1:2">
@@ -4831,7 +4971,7 @@
         <v>44792</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:2">
@@ -4839,7 +4979,7 @@
         <v>44795</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:2">
@@ -4847,7 +4987,7 @@
         <v>44796</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:2">
@@ -4855,7 +4995,7 @@
         <v>44797</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" ht="54" spans="1:2">
@@ -4863,7 +5003,7 @@
         <v>44798</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" ht="54" spans="1:2">
@@ -4871,7 +5011,7 @@
         <v>44802</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" ht="54" spans="1:2">
@@ -4879,7 +5019,7 @@
         <v>44803</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" ht="54" spans="1:2">
@@ -4887,7 +5027,7 @@
         <v>44804</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:2">
@@ -4895,7 +5035,7 @@
         <v>44805</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" ht="67.5" spans="1:2">
@@ -4903,7 +5043,7 @@
         <v>44806</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:2">
@@ -4911,7 +5051,7 @@
         <v>44809</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" ht="54" spans="1:2">
@@ -4919,7 +5059,7 @@
         <v>44810</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" ht="54" spans="1:2">
@@ -4927,7 +5067,7 @@
         <v>44811</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" ht="54" spans="1:2">
@@ -4935,7 +5075,7 @@
         <v>44812</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" ht="54" spans="1:2">
@@ -4943,7 +5083,7 @@
         <v>44813</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" ht="54" spans="1:2">
@@ -4951,7 +5091,7 @@
         <v>44817</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" ht="67.5" spans="1:2">
@@ -4959,7 +5099,7 @@
         <v>44818</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" ht="67.5" spans="1:2">
@@ -4967,7 +5107,7 @@
         <v>44819</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" ht="67.5" spans="1:2">
@@ -4975,7 +5115,7 @@
         <v>44820</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" ht="67.5" spans="1:2">
@@ -4983,7 +5123,7 @@
         <v>44823</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" ht="81" spans="1:2">
@@ -4991,7 +5131,7 @@
         <v>44825</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" ht="54" spans="1:2">
@@ -4999,7 +5139,7 @@
         <v>44826</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:2">
@@ -5007,7 +5147,7 @@
         <v>44827</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" ht="54" spans="1:2">
@@ -5015,7 +5155,7 @@
         <v>44830</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" ht="54" spans="1:2">
@@ -5023,7 +5163,7 @@
         <v>44831</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" ht="54" spans="1:2">
@@ -5031,7 +5171,7 @@
         <v>44832</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" ht="54" spans="1:2">
@@ -5039,7 +5179,7 @@
         <v>44833</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" ht="94.5" spans="1:2">
@@ -5047,7 +5187,7 @@
         <v>44834</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" ht="94.5" spans="1:2">
@@ -5055,7 +5195,7 @@
         <v>44844</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" ht="130" customHeight="1" spans="1:2">
@@ -5063,7 +5203,7 @@
         <v>44845</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="140" ht="94.5" spans="1:2">
@@ -5071,7 +5211,7 @@
         <v>44846</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" ht="94.5" spans="1:2">
@@ -5079,7 +5219,7 @@
         <v>44847</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" ht="94.5" spans="1:2">
@@ -5087,7 +5227,7 @@
         <v>44848</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5095,7 +5235,7 @@
         <v>44851</v>
       </c>
       <c r="B146" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" ht="94.5" spans="1:2">
@@ -5103,7 +5243,7 @@
         <v>44852</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" ht="94.5" spans="1:2">
@@ -5111,7 +5251,7 @@
         <v>44853</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" ht="94.5" spans="1:2">
@@ -5119,7 +5259,7 @@
         <v>44854</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154" ht="94.5" spans="1:2">
@@ -5127,7 +5267,7 @@
         <v>44855</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="156" ht="94.5" spans="1:2">
@@ -5135,7 +5275,7 @@
         <v>44858</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" ht="94.5" spans="1:2">
@@ -5143,7 +5283,7 @@
         <v>44859</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" ht="81" spans="1:2">
@@ -5151,7 +5291,7 @@
         <v>44860</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" ht="94.5" spans="1:2">
@@ -5159,7 +5299,7 @@
         <v>44861</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" ht="94.5" spans="1:2">
@@ -5167,7 +5307,7 @@
         <v>44862</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166" ht="108" spans="1:2">
@@ -5175,7 +5315,7 @@
         <v>44865</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168" ht="81" spans="1:2">
@@ -5183,7 +5323,7 @@
         <v>44866</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170" ht="94.5" spans="1:2">
@@ -5191,7 +5331,7 @@
         <v>44867</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" ht="108" spans="1:2">
@@ -5199,7 +5339,7 @@
         <v>44868</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174" ht="81" spans="1:2">
@@ -5207,7 +5347,7 @@
         <v>44869</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" ht="81" spans="1:2">
@@ -5215,7 +5355,7 @@
         <v>44872</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" ht="54" spans="1:2">
@@ -5223,7 +5363,7 @@
         <v>44873</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" ht="54" spans="1:2">
@@ -5231,7 +5371,7 @@
         <v>44874</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" ht="54" spans="1:2">
@@ -5239,7 +5379,7 @@
         <v>44875</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" ht="54" spans="1:2">
@@ -5247,7 +5387,7 @@
         <v>44875</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" ht="94.5" spans="1:2">
@@ -5255,7 +5395,7 @@
         <v>44879</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188" ht="94.5" spans="1:2">
@@ -5263,7 +5403,7 @@
         <v>44880</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" ht="67.5" spans="1:2">
@@ -5271,7 +5411,7 @@
         <v>44881</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192" ht="94.5" spans="1:2">
@@ -5279,7 +5419,7 @@
         <v>44882</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194" ht="94.5" spans="1:2">
@@ -5287,7 +5427,7 @@
         <v>44883</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" ht="67.5" spans="1:2">
@@ -5295,7 +5435,7 @@
         <v>44886</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198" ht="67.5" spans="1:2">
@@ -5303,7 +5443,7 @@
         <v>44887</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200" ht="54" spans="1:2">
@@ -5311,7 +5451,7 @@
         <v>44888</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5319,7 +5459,7 @@
         <v>44889</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204" ht="67.5" spans="1:2">
@@ -5327,7 +5467,7 @@
         <v>44890</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" ht="67.5" spans="1:2">
@@ -5335,7 +5475,7 @@
         <v>44893</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" ht="67.5" spans="1:2">
@@ -5343,7 +5483,7 @@
         <v>44894</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211" ht="67.5" spans="1:2">
@@ -5351,7 +5491,7 @@
         <v>44895</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213" ht="54" spans="1:2">
@@ -5359,7 +5499,7 @@
         <v>44896</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="215" ht="54" spans="1:2">
@@ -5367,7 +5507,7 @@
         <v>44897</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="217" ht="67.5" spans="1:2">
@@ -5375,7 +5515,7 @@
         <v>44900</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="219" ht="67.5" spans="1:2">
@@ -5383,7 +5523,7 @@
         <v>44901</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221" ht="67.5" spans="1:2">
@@ -5391,7 +5531,7 @@
         <v>44902</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" ht="54" spans="1:2">
@@ -5399,7 +5539,7 @@
         <v>44903</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="225" ht="54" spans="1:2">
@@ -5407,7 +5547,7 @@
         <v>44904</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" ht="54" spans="1:2">
@@ -5415,7 +5555,7 @@
         <v>44907</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="229" ht="54" spans="1:2">
@@ -5423,7 +5563,7 @@
         <v>44908</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="231" ht="54" spans="1:2">
@@ -5431,7 +5571,7 @@
         <v>44909</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" ht="54" spans="1:2">
@@ -5439,7 +5579,7 @@
         <v>44910</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" ht="54" spans="1:2">
@@ -5447,7 +5587,7 @@
         <v>44911</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="237" ht="54" spans="1:2">
@@ -5455,7 +5595,7 @@
         <v>44914</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5463,7 +5603,7 @@
         <v>44924</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="241" ht="54" spans="1:2">
@@ -5471,7 +5611,7 @@
         <v>44925</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="243" ht="54" spans="1:2">
@@ -5479,7 +5619,7 @@
         <v>44929</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="245" ht="54" spans="1:2">
@@ -5487,7 +5627,7 @@
         <v>44931</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="247" ht="54" spans="1:2">
@@ -5495,7 +5635,7 @@
         <v>44932</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="249" ht="54" spans="1:2">
@@ -5503,7 +5643,7 @@
         <v>44935</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251" ht="54" spans="1:2">
@@ -5511,7 +5651,7 @@
         <v>44936</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="253" ht="54" spans="1:2">
@@ -5519,7 +5659,7 @@
         <v>44937</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="255" ht="54" spans="1:2">
@@ -5527,7 +5667,7 @@
         <v>44938</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="257" ht="54" spans="1:2">
@@ -5535,7 +5675,7 @@
         <v>44939</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="259" ht="54" spans="1:2">
@@ -5543,7 +5683,7 @@
         <v>44942</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="261" ht="54" spans="1:2">
@@ -5551,7 +5691,7 @@
         <v>44943</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" ht="54" spans="1:2">
@@ -5559,7 +5699,7 @@
         <v>44946</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/中国人民银行.xlsx
+++ b/src/data/中国人民银行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23985" windowHeight="12540"/>
+    <workbookView windowWidth="23325" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="201">
   <si>
     <t>①央行7天逆回购1230.0亿；7天累计维护中（见图）
 ②宏观：餐饮消费；休闲消费
@@ -399,6 +399,134 @@
 ②宏观：国企扩招
 ③板块：旅游；氢能重卡；机器人
 ④外围：美股震荡；欧股下跌；亚太下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购30亿,7天期限累计360亿；单日逆回购流出1620.0亿
+②宏观：半导体；房屋挂牌；会计事务所
+③板块：数字经济；火电
+④外围：美股下跌；欧股下跌；亚太震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计380.0亿；单日逆回购流入20.0亿
+②宏观：人口高质量发展；新能源下乡；乡村振兴
+③板块：海水环保；居家健身
+④外围：美股上涨；欧股上涨；亚太震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计400.0亿；单日逆回购流入20.0亿
+②宏观：二手房中介；央企估值；商标抢注；猪肉价格
+③板块：光伏；锂电；华为；汽车
+④外围：美股震荡；欧股上涨；亚太上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计420.0亿；单日逆回购流入20.0亿
+②宏观：乡村振兴；汽车排放监管；中加外交；民生银行违规
+③板块：汽车；碳酸锂</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计110.0亿；单日逆回购流出310.0亿
+②宏观：雄安新区；海南自贸区；谷歌ai
+③板块：航空航天；楼市；医保
+④外围：美股震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购流出10.0亿
+②宏观：基建
+③板块：汽车；网红经济；中国建设银行违规
+④外围：美股震荡；欧股震荡；亚太下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平；年度中期借贷便利MLF1250亿
+②宏观：京津冀；人工智能；特斯拉价格上调
+③板块：汽车；芯片；电力
+④外围：美股下跌；欧股上涨；亚太上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：雄安新区；就业见习；MLF降息落空
+③板块：文娱“清朗”；AI；上海海运
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：荷兰；跨境证券；光大集团
+③板块：智能网联汽车；蚂蚁；房屋限购放松
+④外围：美股下跌；欧股下跌；亚太上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：国家金融监督管理局；4月房价环比下降；tmt+中特估；国企改革
+③板块：充电桩；5G异网漫游；医疗大数据；中部义务教育
+④外围：美股上涨；欧股震荡；亚太上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：基本养老服务体系；中泰自营；数字人才培训
+③板块：光伏材料；人工智能；风电
+④外围：美股下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：稳物价；数字产业集群；美国债务上限
+③板块：京津冀产业协同；半导体
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购50亿,7天期限累计180亿；单日逆回购流入30.0亿
+②宏观：车企举报（长安；比亚迪）；中美外交；中小企业；强降雨；金融工具
+③板块：水网；电信基建
+④外围：美:震荡；欧:下跌；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购370.0亿,7天期限累计760.0亿；单日逆回购流入350.0亿
+②宏观：半导体出口管制；粤港澳大湾区；水利；金融监管
+③板块：人工智能；ai
+④外围：美:~；欧:下跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购130.0亿,7天期限累计870.0亿；单日逆回购流入110.0亿
+②宏观：社保基金-科创；不动产登记；关税；
+③板块：一带一路；无人驾驶
+④外围：美:震荡；欧:下跌；亚：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计820.0亿；单日逆回购流出50.0亿
+②宏观：特斯拉；跨境电商；货币政策
+③板块：人工智能；网络安全
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计790.0亿；单日逆回购流出30.0亿
+②宏观：新能源储能；中美技术限制（半导体）
+③板块：数字人民币；量子计算机；充电桩
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计560.0亿；单日逆回购流出230.0亿
+②宏观：新能源；台海；促销费；
+③板块：上汽；太阳能电池
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计210.0亿；单日逆回购流出350.0亿
+②宏观：国资央企；货币政策；
+③板块：ai；电子气体
+④外围：美：下跌；欧：下跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购流出110.0亿</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：新能源汽车；台海问题；一带一路
+③板块：上汽；mr头显；太阳能电池
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：人工智能；金融监管；保险交易
+③板块：人工智能
+④外围：美：上涨；欧：震荡；亚：下跌</t>
   </si>
   <si>
     <t>①央行7天逆回购100亿，开始收缩
@@ -4182,10 +4310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:B112"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4627,6 +4755,182 @@
       </c>
       <c r="B109" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="111" ht="54" spans="1:2">
+      <c r="A111" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" ht="54" spans="1:2">
+      <c r="A113" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" ht="54" spans="1:2">
+      <c r="A115" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" ht="40.5" spans="1:2">
+      <c r="A117" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" ht="54" spans="1:2">
+      <c r="A119" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" ht="54" spans="1:2">
+      <c r="A121" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" ht="54" spans="1:2">
+      <c r="A123" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" ht="54" spans="1:2">
+      <c r="A125" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" ht="54" spans="1:2">
+      <c r="A127" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" ht="54" spans="1:2">
+      <c r="A129" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" ht="54" spans="1:2">
+      <c r="A131" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" ht="54" spans="1:2">
+      <c r="A133" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" ht="54" spans="1:2">
+      <c r="A135" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" ht="54" spans="1:2">
+      <c r="A137" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" ht="54" spans="1:2">
+      <c r="A139" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" ht="54" spans="1:2">
+      <c r="A141" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" ht="54" spans="1:2">
+      <c r="A143" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" ht="54" spans="1:2">
+      <c r="A145" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" ht="54" spans="1:2">
+      <c r="A147" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" ht="54" spans="1:2">
+      <c r="A151" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" ht="54" spans="1:2">
+      <c r="A153" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4655,7 +4959,7 @@
         <v>44743</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:2">
@@ -4663,7 +4967,7 @@
         <v>44746</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:2">
@@ -4671,7 +4975,7 @@
         <v>44747</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:2">
@@ -4679,7 +4983,7 @@
         <v>44748</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
@@ -4687,7 +4991,7 @@
         <v>44749</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:2">
@@ -4695,7 +4999,7 @@
         <v>44750</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:2">
@@ -4703,7 +5007,7 @@
         <v>44753</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:2">
@@ -4711,7 +5015,7 @@
         <v>44754</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:2">
@@ -4719,7 +5023,7 @@
         <v>44755</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:2">
@@ -4727,7 +5031,7 @@
         <v>44756</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:2">
@@ -4735,7 +5039,7 @@
         <v>44757</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:2">
@@ -4743,7 +5047,7 @@
         <v>44760</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:2">
@@ -4751,7 +5055,7 @@
         <v>44760</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:2">
@@ -4759,7 +5063,7 @@
         <v>44761</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:2">
@@ -4767,7 +5071,7 @@
         <v>44763</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:2">
@@ -4775,7 +5079,7 @@
         <v>44764</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4783,7 +5087,7 @@
         <v>44767</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4803,7 +5107,7 @@
         <v>44768</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4823,7 +5127,7 @@
         <v>44769</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4843,7 +5147,7 @@
         <v>44770</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" ht="67.5" spans="1:2">
@@ -4851,7 +5155,7 @@
         <v>44771</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" ht="81" spans="1:2">
@@ -4859,7 +5163,7 @@
         <v>44774</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" ht="67.5" spans="1:2">
@@ -4867,7 +5171,7 @@
         <v>44775</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:2">
@@ -4875,7 +5179,7 @@
         <v>44776</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" ht="67.5" spans="1:2">
@@ -4883,7 +5187,7 @@
         <v>44777</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" ht="67.5" spans="1:2">
@@ -4891,7 +5195,7 @@
         <v>44778</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="54" spans="1:2">
@@ -4899,7 +5203,7 @@
         <v>44781</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:2">
@@ -4907,7 +5211,7 @@
         <v>44782</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" ht="54" spans="1:2">
@@ -4915,7 +5219,7 @@
         <v>44783</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="1:2">
@@ -4923,7 +5227,7 @@
         <v>44784</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" ht="54" spans="1:2">
@@ -4931,7 +5235,7 @@
         <v>44785</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" ht="54" spans="1:2">
@@ -4939,7 +5243,7 @@
         <v>44788</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" ht="54" spans="1:2">
@@ -4947,7 +5251,7 @@
         <v>44789</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" ht="54" spans="1:2">
@@ -4955,7 +5259,7 @@
         <v>44790</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:2">
@@ -4963,7 +5267,7 @@
         <v>44791</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" ht="54" spans="1:2">
@@ -4971,7 +5275,7 @@
         <v>44792</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:2">
@@ -4979,7 +5283,7 @@
         <v>44795</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:2">
@@ -4987,7 +5291,7 @@
         <v>44796</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:2">
@@ -4995,7 +5299,7 @@
         <v>44797</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" ht="54" spans="1:2">
@@ -5003,7 +5307,7 @@
         <v>44798</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" ht="54" spans="1:2">
@@ -5011,7 +5315,7 @@
         <v>44802</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" ht="54" spans="1:2">
@@ -5019,7 +5323,7 @@
         <v>44803</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" ht="54" spans="1:2">
@@ -5027,7 +5331,7 @@
         <v>44804</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:2">
@@ -5035,7 +5339,7 @@
         <v>44805</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" ht="67.5" spans="1:2">
@@ -5043,7 +5347,7 @@
         <v>44806</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:2">
@@ -5051,7 +5355,7 @@
         <v>44809</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" ht="54" spans="1:2">
@@ -5059,7 +5363,7 @@
         <v>44810</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" ht="54" spans="1:2">
@@ -5067,7 +5371,7 @@
         <v>44811</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" ht="54" spans="1:2">
@@ -5075,7 +5379,7 @@
         <v>44812</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" ht="54" spans="1:2">
@@ -5083,7 +5387,7 @@
         <v>44813</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" ht="54" spans="1:2">
@@ -5091,7 +5395,7 @@
         <v>44817</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" ht="67.5" spans="1:2">
@@ -5099,7 +5403,7 @@
         <v>44818</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" ht="67.5" spans="1:2">
@@ -5107,7 +5411,7 @@
         <v>44819</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" ht="67.5" spans="1:2">
@@ -5115,7 +5419,7 @@
         <v>44820</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" ht="67.5" spans="1:2">
@@ -5123,7 +5427,7 @@
         <v>44823</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" ht="81" spans="1:2">
@@ -5131,7 +5435,7 @@
         <v>44825</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" ht="54" spans="1:2">
@@ -5139,7 +5443,7 @@
         <v>44826</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:2">
@@ -5147,7 +5451,7 @@
         <v>44827</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" ht="54" spans="1:2">
@@ -5155,7 +5459,7 @@
         <v>44830</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" ht="54" spans="1:2">
@@ -5163,7 +5467,7 @@
         <v>44831</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" ht="54" spans="1:2">
@@ -5171,7 +5475,7 @@
         <v>44832</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" ht="54" spans="1:2">
@@ -5179,7 +5483,7 @@
         <v>44833</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" ht="94.5" spans="1:2">
@@ -5187,7 +5491,7 @@
         <v>44834</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" ht="94.5" spans="1:2">
@@ -5195,7 +5499,7 @@
         <v>44844</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" ht="130" customHeight="1" spans="1:2">
@@ -5203,7 +5507,7 @@
         <v>44845</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" ht="94.5" spans="1:2">
@@ -5211,7 +5515,7 @@
         <v>44846</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" ht="94.5" spans="1:2">
@@ -5219,7 +5523,7 @@
         <v>44847</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" ht="94.5" spans="1:2">
@@ -5227,7 +5531,7 @@
         <v>44848</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5235,7 +5539,7 @@
         <v>44851</v>
       </c>
       <c r="B146" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" ht="94.5" spans="1:2">
@@ -5243,7 +5547,7 @@
         <v>44852</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" ht="94.5" spans="1:2">
@@ -5251,7 +5555,7 @@
         <v>44853</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" ht="94.5" spans="1:2">
@@ -5259,7 +5563,7 @@
         <v>44854</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" ht="94.5" spans="1:2">
@@ -5267,7 +5571,7 @@
         <v>44855</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" ht="94.5" spans="1:2">
@@ -5275,7 +5579,7 @@
         <v>44858</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" ht="94.5" spans="1:2">
@@ -5283,7 +5587,7 @@
         <v>44859</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" ht="81" spans="1:2">
@@ -5291,7 +5595,7 @@
         <v>44860</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" ht="94.5" spans="1:2">
@@ -5299,7 +5603,7 @@
         <v>44861</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" ht="94.5" spans="1:2">
@@ -5307,7 +5611,7 @@
         <v>44862</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" ht="108" spans="1:2">
@@ -5315,7 +5619,7 @@
         <v>44865</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168" ht="81" spans="1:2">
@@ -5323,7 +5627,7 @@
         <v>44866</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" ht="94.5" spans="1:2">
@@ -5331,7 +5635,7 @@
         <v>44867</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" ht="108" spans="1:2">
@@ -5339,7 +5643,7 @@
         <v>44868</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" ht="81" spans="1:2">
@@ -5347,7 +5651,7 @@
         <v>44869</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176" ht="81" spans="1:2">
@@ -5355,7 +5659,7 @@
         <v>44872</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" ht="54" spans="1:2">
@@ -5363,7 +5667,7 @@
         <v>44873</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" ht="54" spans="1:2">
@@ -5371,7 +5675,7 @@
         <v>44874</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" ht="54" spans="1:2">
@@ -5379,7 +5683,7 @@
         <v>44875</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" ht="54" spans="1:2">
@@ -5387,7 +5691,7 @@
         <v>44875</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" ht="94.5" spans="1:2">
@@ -5395,7 +5699,7 @@
         <v>44879</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" ht="94.5" spans="1:2">
@@ -5403,7 +5707,7 @@
         <v>44880</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" ht="67.5" spans="1:2">
@@ -5411,7 +5715,7 @@
         <v>44881</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192" ht="94.5" spans="1:2">
@@ -5419,7 +5723,7 @@
         <v>44882</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" ht="94.5" spans="1:2">
@@ -5427,7 +5731,7 @@
         <v>44883</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196" ht="67.5" spans="1:2">
@@ -5435,7 +5739,7 @@
         <v>44886</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" ht="67.5" spans="1:2">
@@ -5443,7 +5747,7 @@
         <v>44887</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200" ht="54" spans="1:2">
@@ -5451,7 +5755,7 @@
         <v>44888</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5459,7 +5763,7 @@
         <v>44889</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204" ht="67.5" spans="1:2">
@@ -5467,7 +5771,7 @@
         <v>44890</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" ht="67.5" spans="1:2">
@@ -5475,7 +5779,7 @@
         <v>44893</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" ht="67.5" spans="1:2">
@@ -5483,7 +5787,7 @@
         <v>44894</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" ht="67.5" spans="1:2">
@@ -5491,7 +5795,7 @@
         <v>44895</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" ht="54" spans="1:2">
@@ -5499,7 +5803,7 @@
         <v>44896</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215" ht="54" spans="1:2">
@@ -5507,7 +5811,7 @@
         <v>44897</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
     </row>
     <row r="217" ht="67.5" spans="1:2">
@@ -5515,7 +5819,7 @@
         <v>44900</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219" ht="67.5" spans="1:2">
@@ -5523,7 +5827,7 @@
         <v>44901</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="221" ht="67.5" spans="1:2">
@@ -5531,7 +5835,7 @@
         <v>44902</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" ht="54" spans="1:2">
@@ -5539,7 +5843,7 @@
         <v>44903</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="225" ht="54" spans="1:2">
@@ -5547,7 +5851,7 @@
         <v>44904</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" ht="54" spans="1:2">
@@ -5555,7 +5859,7 @@
         <v>44907</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229" ht="54" spans="1:2">
@@ -5563,7 +5867,7 @@
         <v>44908</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" ht="54" spans="1:2">
@@ -5571,7 +5875,7 @@
         <v>44909</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="233" ht="54" spans="1:2">
@@ -5579,7 +5883,7 @@
         <v>44910</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="235" ht="54" spans="1:2">
@@ -5587,7 +5891,7 @@
         <v>44911</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="237" ht="54" spans="1:2">
@@ -5595,7 +5899,7 @@
         <v>44914</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5603,7 +5907,7 @@
         <v>44924</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="241" ht="54" spans="1:2">
@@ -5611,7 +5915,7 @@
         <v>44925</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="243" ht="54" spans="1:2">
@@ -5619,7 +5923,7 @@
         <v>44929</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245" ht="54" spans="1:2">
@@ -5627,7 +5931,7 @@
         <v>44931</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="247" ht="54" spans="1:2">
@@ -5635,7 +5939,7 @@
         <v>44932</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249" ht="54" spans="1:2">
@@ -5643,7 +5947,7 @@
         <v>44935</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251" ht="54" spans="1:2">
@@ -5651,7 +5955,7 @@
         <v>44936</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="253" ht="54" spans="1:2">
@@ -5659,7 +5963,7 @@
         <v>44937</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="255" ht="54" spans="1:2">
@@ -5667,7 +5971,7 @@
         <v>44938</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="257" ht="54" spans="1:2">
@@ -5675,7 +5979,7 @@
         <v>44939</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="259" ht="54" spans="1:2">
@@ -5683,7 +5987,7 @@
         <v>44942</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="261" ht="54" spans="1:2">
@@ -5691,7 +5995,7 @@
         <v>44943</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="263" ht="54" spans="1:2">
@@ -5699,7 +6003,7 @@
         <v>44946</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/中国人民银行.xlsx
+++ b/src/data/中国人民银行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12540"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="231">
   <si>
     <t>①央行7天逆回购1230.0亿；7天累计维护中（见图）
 ②宏观：餐饮消费；休闲消费
@@ -527,6 +527,177 @@
 ②宏观：人工智能；金融监管；保险交易
 ③板块：人工智能
 ④外围：美：上涨；欧：震荡；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：促就业；绿色能源
+③板块：人工智能；薄膜铌酸锂；游戏
+④外围：美：上涨；欧：下跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：存款利率下调；高温；5月经济效益减弱
+③板块：自动驾驶；ai
+④外围：美：上涨；欧：上涨；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：二手房；海关
+③板块：自动驾驶；ai
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平，年度逆回购2370亿
+②宏观：新能源；用地保障；美联储加息政策
+③板块：芯片；ai
+④外围：美：震荡；欧：涨；亚：涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购420.0亿,7天期限累计500.0亿；单日逆回购流入400.0亿
+②宏观：新能源汽车；二手房
+③板块：ai；封装
+④外围：美：涨；欧：震荡；亚：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购890.0亿,7天期限累计1370.0亿；单日逆回购流入870.0亿</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1820.0亿,7天期限累计3170.0亿；单日逆回购流入1800.0亿
+②宏观：外交；电车下乡；水利
+③板块：电车；ai；企业数字化转型
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1450.0亿,7天期限累计4600.0亿；单日逆回购流入1430.0亿
+②宏观：绿色；环保；消费刺激；粤港澳；lpr下调；华为
+③板块：装机；算法备案
+④外围：欧美：普跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2440.0亿,7天期限累计7670.0亿；单日逆回购流入1550.0亿
+②宏观：外交；瓦格纳；国资央企改革
+③板块：老旧管段改造；数字货币
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2190.0亿,7天期限累计8040.0亿；单日逆回购流入370.0亿
+②宏观：人民币美元汇率走低
+③板块：乡村振兴；数字政府改革；高温电力储能
+④外围：美：跌；欧：震荡；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购2140.0亿,7天期限累计8730.0亿；单日逆回购流入690.0亿
+②宏观：5G-6G;瓦格纳
+③板块：房屋养老金制度；新能源车免购置税
+④外围：美：上涨；欧：上涨；亚：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1930.0亿,7天期限累计10660.0亿；单日逆回购流入1930.0亿
+②宏观：新能源汽车；企业数字化转型；台湾；芯片；高温
+③板块：无人驾驶；汽车；电影
+④外围：美：震荡；欧：上涨；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购1030.0亿,7天期限累计11690.0亿；单日逆回购流入1030.0亿
+②宏观：家居消费；自贸区；知识产权
+③板块：家居消费；人工智能；船舶
+④外围：美：上涨；欧：震荡；亚：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购50.0亿,7天期限累计8750.0亿；单日逆回购流出1910.0亿
+②宏观：雄安新区；三农；货币政策
+③板块：半导体；自动驾驶；彩票
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计6330.0亿；单日逆回购流出2420.0亿
+②宏观：电力保障；贵金属出口限制
+③板块：抽水蓄能；猪肉
+④外围：美：休市；欧：下跌；亚：上涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计4160.0亿；单日逆回购流出2170.0亿
+②宏观：电力保障；芯片；数字产业；洪涝
+③板块：一带一路；比亚迪；电车
+④外围：美：休市；欧：下跌；亚：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计2040.0亿；单日逆回购流出2120.0亿
+②宏观：美国加息；人民币贬值；数字经济
+③板块：医疗器械；农业防灾；国产操作系统
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计130.0亿；单日逆回购流出1910.0亿
+②宏观：军工；中美贸易会谈；人工智能；高温；险种；光刻机
+③板块：建材；ai；自动驾驶
+④外围：普跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购流出30.0亿
+②宏观：中美访谈；高温；温室气体排放
+③板块：卫星；硅片；ai
+④外围：欧美：跌；亚：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：民营企业管理；房地产金融支持
+③板块：电（火电）；婴幼儿奶粉；光纤预制棒
+④外围：欧美：上涨；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购20.0亿,7天期限累计100.0亿；单日逆回购持平
+②宏观：能耗双控；高校-科研院薪资改革；数字经济
+③板块：一体化压铸；电力；地产
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购50.0亿,7天期限累计130.0亿；单日逆回购流入30.0亿
+②宏观：平台经济；航空；15分钟生活圈；高校基础研究
+③板块：略
+④外围：欧美：上涨；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购200.0亿,7天期限累计310.0亿；单日逆回购流入180.0亿
+②宏观：中美关系；高温；半导体
+③板块：ai；医疗；汽车
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购330.0亿,7天期限累计620.0亿；单日逆回购流入310.0亿，一年逆回购1030亿，净入30亿
+②宏观：中美关系；高温；半导体
+③板块：ai；医疗；汽车
+④外围：普涨</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购150.0亿,7天期限累计750.0亿；单日逆回购流入130.0亿
+②宏观：气候；取消落户限制
+③板块：国企改革；算力；环保
+④外围：美:上涨；欧亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购250.0亿,7天期限累计980.0亿；单日逆回购流入230.0亿
+②宏观：气候；国企改革；储能
+③板块：碳中和；家居消费；ai
+④外围：欧美:上涨；亚：下跌</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购260.0亿,7天期限累计990.0亿；单日逆回购流入240.0亿
+②宏观：民营经济；外资准入
+③板块：5G；ai；发电机
+④外围：美:上涨；亚：涨；欧：震荡</t>
+  </si>
+  <si>
+    <t>①央行7天逆回购130.0亿,7天期限累计1070.0亿；单日逆回购流入80.0亿
+②宏观：耕地；民营经济；中美关系；气候
+③板块：耕地；银发市场；vr
+④外围：美:震荡；欧：涨；亚：下跌</t>
+  </si>
+  <si>
+    <t>央行7天逆回购650.0亿,7天期限累计3410.0亿；单日逆回购流入520.0亿</t>
   </si>
   <si>
     <t>①央行7天逆回购100亿，开始收缩
@@ -3284,7 +3455,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3306,34 +3477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3347,14 +3490,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3394,6 +3529,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3444,7 +3594,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3496,55 +3667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3562,31 +3691,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3610,6 +3727,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3622,7 +3751,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3646,7 +3799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,6 +3835,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3687,21 +3858,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3734,6 +3890,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3792,148 +3963,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3965,52 +4136,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4310,10 +4481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213:B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4931,6 +5102,243 @@
       </c>
       <c r="B153" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="155" ht="54" spans="1:2">
+      <c r="A155" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" ht="54" spans="1:2">
+      <c r="A157" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" ht="54" spans="1:2">
+      <c r="A159" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" ht="54" spans="1:2">
+      <c r="A161" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" ht="54" spans="1:2">
+      <c r="A163" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" ht="54" spans="1:2">
+      <c r="A167" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="169" ht="54" spans="1:2">
+      <c r="A169" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" ht="54" spans="1:2">
+      <c r="A171" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" ht="54" spans="1:2">
+      <c r="A173" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" ht="54" spans="1:2">
+      <c r="A175" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" ht="54" spans="1:2">
+      <c r="A177" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" ht="54" spans="1:2">
+      <c r="A179" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" ht="54" spans="1:2">
+      <c r="A181" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" ht="54" spans="1:2">
+      <c r="A183" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="185" ht="54" spans="1:2">
+      <c r="A185" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" ht="54" spans="1:2">
+      <c r="A187" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" ht="54" spans="1:2">
+      <c r="A189" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" ht="54" spans="1:2">
+      <c r="A191" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="193" ht="54" spans="1:2">
+      <c r="A193" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="195" ht="54" spans="1:2">
+      <c r="A195" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" ht="54" spans="1:2">
+      <c r="A197" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" ht="54" spans="1:2">
+      <c r="A199" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="201" ht="54" spans="1:2">
+      <c r="A201" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" ht="54" spans="1:2">
+      <c r="A203" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" ht="54" spans="1:2">
+      <c r="A205" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="207" ht="54" spans="1:2">
+      <c r="A207" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" ht="54" spans="1:2">
+      <c r="A209" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +5353,7 @@
   <dimension ref="A1:B263"/>
   <sheetViews>
     <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:B265"/>
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4959,7 +5367,7 @@
         <v>44743</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:2">
@@ -4967,7 +5375,7 @@
         <v>44746</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:2">
@@ -4975,7 +5383,7 @@
         <v>44747</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:2">
@@ -4983,7 +5391,7 @@
         <v>44748</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
@@ -4991,7 +5399,7 @@
         <v>44749</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:2">
@@ -4999,7 +5407,7 @@
         <v>44750</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:2">
@@ -5007,7 +5415,7 @@
         <v>44753</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:2">
@@ -5015,7 +5423,7 @@
         <v>44754</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:2">
@@ -5023,7 +5431,7 @@
         <v>44755</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:2">
@@ -5031,7 +5439,7 @@
         <v>44756</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:2">
@@ -5039,7 +5447,7 @@
         <v>44757</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:2">
@@ -5047,7 +5455,7 @@
         <v>44760</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:2">
@@ -5055,7 +5463,7 @@
         <v>44760</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:2">
@@ -5063,7 +5471,7 @@
         <v>44761</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:2">
@@ -5071,7 +5479,7 @@
         <v>44763</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:2">
@@ -5079,7 +5487,7 @@
         <v>44764</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5087,7 +5495,7 @@
         <v>44767</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5107,7 +5515,7 @@
         <v>44768</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5127,7 +5535,7 @@
         <v>44769</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5147,7 +5555,7 @@
         <v>44770</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" ht="67.5" spans="1:2">
@@ -5155,7 +5563,7 @@
         <v>44771</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" ht="81" spans="1:2">
@@ -5163,7 +5571,7 @@
         <v>44774</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" ht="67.5" spans="1:2">
@@ -5171,7 +5579,7 @@
         <v>44775</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:2">
@@ -5179,7 +5587,7 @@
         <v>44776</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" ht="67.5" spans="1:2">
@@ -5187,7 +5595,7 @@
         <v>44777</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" ht="67.5" spans="1:2">
@@ -5195,7 +5603,7 @@
         <v>44778</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" ht="54" spans="1:2">
@@ -5203,7 +5611,7 @@
         <v>44781</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:2">
@@ -5211,7 +5619,7 @@
         <v>44782</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" ht="54" spans="1:2">
@@ -5219,7 +5627,7 @@
         <v>44783</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="1:2">
@@ -5227,7 +5635,7 @@
         <v>44784</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" ht="54" spans="1:2">
@@ -5235,7 +5643,7 @@
         <v>44785</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" ht="54" spans="1:2">
@@ -5243,7 +5651,7 @@
         <v>44788</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" ht="54" spans="1:2">
@@ -5251,7 +5659,7 @@
         <v>44789</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" ht="54" spans="1:2">
@@ -5259,7 +5667,7 @@
         <v>44790</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:2">
@@ -5267,7 +5675,7 @@
         <v>44791</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" ht="54" spans="1:2">
@@ -5275,7 +5683,7 @@
         <v>44792</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" ht="54" spans="1:2">
@@ -5283,7 +5691,7 @@
         <v>44795</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:2">
@@ -5291,7 +5699,7 @@
         <v>44796</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:2">
@@ -5299,7 +5707,7 @@
         <v>44797</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" ht="54" spans="1:2">
@@ -5307,7 +5715,7 @@
         <v>44798</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" ht="54" spans="1:2">
@@ -5315,7 +5723,7 @@
         <v>44802</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" ht="54" spans="1:2">
@@ -5323,7 +5731,7 @@
         <v>44803</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" ht="54" spans="1:2">
@@ -5331,7 +5739,7 @@
         <v>44804</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:2">
@@ -5339,7 +5747,7 @@
         <v>44805</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" ht="67.5" spans="1:2">
@@ -5347,7 +5755,7 @@
         <v>44806</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:2">
@@ -5355,7 +5763,7 @@
         <v>44809</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" ht="54" spans="1:2">
@@ -5363,7 +5771,7 @@
         <v>44810</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" ht="54" spans="1:2">
@@ -5371,7 +5779,7 @@
         <v>44811</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" ht="54" spans="1:2">
@@ -5379,7 +5787,7 @@
         <v>44812</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" ht="54" spans="1:2">
@@ -5387,7 +5795,7 @@
         <v>44813</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" ht="54" spans="1:2">
@@ -5395,7 +5803,7 @@
         <v>44817</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" ht="67.5" spans="1:2">
@@ -5403,7 +5811,7 @@
         <v>44818</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" ht="67.5" spans="1:2">
@@ -5411,7 +5819,7 @@
         <v>44819</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" ht="67.5" spans="1:2">
@@ -5419,7 +5827,7 @@
         <v>44820</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" ht="67.5" spans="1:2">
@@ -5427,7 +5835,7 @@
         <v>44823</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" ht="81" spans="1:2">
@@ -5435,7 +5843,7 @@
         <v>44825</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" ht="54" spans="1:2">
@@ -5443,7 +5851,7 @@
         <v>44826</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:2">
@@ -5451,7 +5859,7 @@
         <v>44827</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" ht="54" spans="1:2">
@@ -5459,7 +5867,7 @@
         <v>44830</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" ht="54" spans="1:2">
@@ -5467,7 +5875,7 @@
         <v>44831</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" ht="54" spans="1:2">
@@ -5475,7 +5883,7 @@
         <v>44832</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" ht="54" spans="1:2">
@@ -5483,7 +5891,7 @@
         <v>44833</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" ht="94.5" spans="1:2">
@@ -5491,7 +5899,7 @@
         <v>44834</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" ht="94.5" spans="1:2">
@@ -5499,7 +5907,7 @@
         <v>44844</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" ht="130" customHeight="1" spans="1:2">
@@ -5507,7 +5915,7 @@
         <v>44845</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" ht="94.5" spans="1:2">
@@ -5515,7 +5923,7 @@
         <v>44846</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" ht="94.5" spans="1:2">
@@ -5523,7 +5931,7 @@
         <v>44847</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" ht="94.5" spans="1:2">
@@ -5531,7 +5939,7 @@
         <v>44848</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5539,7 +5947,7 @@
         <v>44851</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" ht="94.5" spans="1:2">
@@ -5547,7 +5955,7 @@
         <v>44852</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" ht="94.5" spans="1:2">
@@ -5555,7 +5963,7 @@
         <v>44853</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" ht="94.5" spans="1:2">
@@ -5563,7 +5971,7 @@
         <v>44854</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" ht="94.5" spans="1:2">
@@ -5571,7 +5979,7 @@
         <v>44855</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" ht="94.5" spans="1:2">
@@ -5579,7 +5987,7 @@
         <v>44858</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" ht="94.5" spans="1:2">
@@ -5587,7 +5995,7 @@
         <v>44859</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" ht="81" spans="1:2">
@@ -5595,7 +6003,7 @@
         <v>44860</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" ht="94.5" spans="1:2">
@@ -5603,7 +6011,7 @@
         <v>44861</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" ht="94.5" spans="1:2">
@@ -5611,7 +6019,7 @@
         <v>44862</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" ht="108" spans="1:2">
@@ -5619,7 +6027,7 @@
         <v>44865</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" ht="81" spans="1:2">
@@ -5627,7 +6035,7 @@
         <v>44866</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" ht="94.5" spans="1:2">
@@ -5635,7 +6043,7 @@
         <v>44867</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" ht="108" spans="1:2">
@@ -5643,7 +6051,7 @@
         <v>44868</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" ht="81" spans="1:2">
@@ -5651,7 +6059,7 @@
         <v>44869</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" ht="81" spans="1:2">
@@ -5659,7 +6067,7 @@
         <v>44872</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" ht="54" spans="1:2">
@@ -5667,7 +6075,7 @@
         <v>44873</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" ht="54" spans="1:2">
@@ -5675,7 +6083,7 @@
         <v>44874</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" ht="54" spans="1:2">
@@ -5683,7 +6091,7 @@
         <v>44875</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" ht="54" spans="1:2">
@@ -5691,7 +6099,7 @@
         <v>44875</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" ht="94.5" spans="1:2">
@@ -5699,7 +6107,7 @@
         <v>44879</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" ht="94.5" spans="1:2">
@@ -5707,7 +6115,7 @@
         <v>44880</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" ht="67.5" spans="1:2">
@@ -5715,7 +6123,7 @@
         <v>44881</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" ht="94.5" spans="1:2">
@@ -5723,7 +6131,7 @@
         <v>44882</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" ht="94.5" spans="1:2">
@@ -5731,7 +6139,7 @@
         <v>44883</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" ht="67.5" spans="1:2">
@@ -5739,7 +6147,7 @@
         <v>44886</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" ht="67.5" spans="1:2">
@@ -5747,7 +6155,7 @@
         <v>44887</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" ht="54" spans="1:2">
@@ -5755,7 +6163,7 @@
         <v>44888</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5763,7 +6171,7 @@
         <v>44889</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" ht="67.5" spans="1:2">
@@ -5771,7 +6179,7 @@
         <v>44890</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" ht="67.5" spans="1:2">
@@ -5779,7 +6187,7 @@
         <v>44893</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" ht="67.5" spans="1:2">
@@ -5787,7 +6195,7 @@
         <v>44894</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" ht="67.5" spans="1:2">
@@ -5795,7 +6203,7 @@
         <v>44895</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" ht="54" spans="1:2">
@@ -5803,7 +6211,7 @@
         <v>44896</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" ht="54" spans="1:2">
@@ -5811,7 +6219,7 @@
         <v>44897</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" ht="67.5" spans="1:2">
@@ -5819,7 +6227,7 @@
         <v>44900</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="219" ht="67.5" spans="1:2">
@@ -5827,7 +6235,7 @@
         <v>44901</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="221" ht="67.5" spans="1:2">
@@ -5835,7 +6243,7 @@
         <v>44902</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="223" ht="54" spans="1:2">
@@ -5843,7 +6251,7 @@
         <v>44903</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="225" ht="54" spans="1:2">
@@ -5851,7 +6259,7 @@
         <v>44904</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="227" ht="54" spans="1:2">
@@ -5859,7 +6267,7 @@
         <v>44907</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="229" ht="54" spans="1:2">
@@ -5867,7 +6275,7 @@
         <v>44908</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" ht="54" spans="1:2">
@@ -5875,7 +6283,7 @@
         <v>44909</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" ht="54" spans="1:2">
@@ -5883,7 +6291,7 @@
         <v>44910</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235" ht="54" spans="1:2">
@@ -5891,7 +6299,7 @@
         <v>44911</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="237" ht="54" spans="1:2">
@@ -5899,7 +6307,7 @@
         <v>44914</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5907,7 +6315,7 @@
         <v>44924</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="241" ht="54" spans="1:2">
@@ -5915,7 +6323,7 @@
         <v>44925</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="243" ht="54" spans="1:2">
@@ -5923,7 +6331,7 @@
         <v>44929</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" ht="54" spans="1:2">
@@ -5931,7 +6339,7 @@
         <v>44931</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" ht="54" spans="1:2">
@@ -5939,7 +6347,7 @@
         <v>44932</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="249" ht="54" spans="1:2">
@@ -5947,7 +6355,7 @@
         <v>44935</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="251" ht="54" spans="1:2">
@@ -5955,7 +6363,7 @@
         <v>44936</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="253" ht="54" spans="1:2">
@@ -5963,7 +6371,7 @@
         <v>44937</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="255" ht="54" spans="1:2">
@@ -5971,7 +6379,7 @@
         <v>44938</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="257" ht="54" spans="1:2">
@@ -5979,7 +6387,7 @@
         <v>44939</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="259" ht="54" spans="1:2">
@@ -5987,7 +6395,7 @@
         <v>44942</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="261" ht="54" spans="1:2">
@@ -5995,7 +6403,7 @@
         <v>44943</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="263" ht="54" spans="1:2">
@@ -6003,7 +6411,7 @@
         <v>44946</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
